--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Edema macular diabético (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Edema macular diabético (INC).xlsx
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.134898981499774</v>
+        <v>-4.134898981499781</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.187665903305838</v>
+        <v>-7.187665903305852</v>
       </c>
       <c r="C3" t="n">
         <v>0.8210771355299187</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.470160078083772</v>
+        <v>6.470160078083765</v>
       </c>
       <c r="B4" t="n">
-        <v>1.32530300211263</v>
+        <v>1.325303002112623</v>
       </c>
       <c r="C4" t="n">
         <v>12.81824278879071</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.64853745926041</v>
+        <v>-1.648537459260417</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.791352484428135</v>
+        <v>-4.791352484428142</v>
       </c>
       <c r="C5" t="n">
         <v>3.257387900494805</v>
@@ -598,7 +598,7 @@
         <v>0.837824062978946</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.395039065550424</v>
+        <v>-2.395039065550431</v>
       </c>
       <c r="C15" t="n">
         <v>5.693698665459699</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.533472600752624</v>
+        <v>6.53347260075261</v>
       </c>
       <c r="B18" t="n">
-        <v>1.382069469612386</v>
+        <v>1.382069469612379</v>
       </c>
       <c r="C18" t="n">
         <v>12.90549960921739</v>
@@ -664,7 +664,7 @@
         <v>11.37957059989364</v>
       </c>
       <c r="B21" t="n">
-        <v>6.061163372368291</v>
+        <v>6.061163372368284</v>
       </c>
       <c r="C21" t="n">
         <v>17.60360749829382</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>82.46384100671618</v>
+        <v>82.46384100671619</v>
       </c>
       <c r="B22" t="n">
         <v>62.65958438267245</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.207629869436325</v>
+        <v>2.207629869436317</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.083349421112057</v>
+        <v>-1.083349421112064</v>
       </c>
       <c r="C23" t="n">
         <v>7.086367688795491</v>
@@ -697,7 +697,7 @@
         <v>20.61482385301981</v>
       </c>
       <c r="B24" t="n">
-        <v>13.2624426333484</v>
+        <v>13.26244263334839</v>
       </c>
       <c r="C24" t="n">
         <v>28.20810412821882</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>18.1917748534493</v>
+        <v>18.19177485344929</v>
       </c>
       <c r="B25" t="n">
-        <v>10.92289568197045</v>
+        <v>10.92289568197044</v>
       </c>
       <c r="C25" t="n">
         <v>25.8590501836806</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11.50619564523134</v>
+        <v>11.50619564523133</v>
       </c>
       <c r="B26" t="n">
-        <v>6.174696307367803</v>
+        <v>6.1746963073678</v>
       </c>
       <c r="C26" t="n">
         <v>17.77812113914717</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>76.98978629828348</v>
+        <v>76.98978629828349</v>
       </c>
       <c r="B27" t="n">
         <v>59.08115848375878</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>40.39182364306067</v>
+        <v>40.39182364306068</v>
       </c>
       <c r="B28" t="n">
-        <v>28.91992433224722</v>
+        <v>28.91992433224721</v>
       </c>
       <c r="C28" t="n">
         <v>50.72250959097794</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.450810630556006</v>
+        <v>3.450810630555999</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1148072883267943</v>
+        <v>0.1148072883267908</v>
       </c>
       <c r="C29" t="n">
         <v>8.304523071277934</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32.49471993505746</v>
+        <v>32.49471993505745</v>
       </c>
       <c r="B30" t="n">
         <v>23.0019514819556</v>
@@ -774,7 +774,7 @@
         <v>61.57028550089333</v>
       </c>
       <c r="B31" t="n">
-        <v>45.91747890933428</v>
+        <v>45.91747890933429</v>
       </c>
       <c r="C31" t="n">
         <v>74.67321248728618</v>
@@ -785,7 +785,7 @@
         <v>70.6789137086818</v>
       </c>
       <c r="B32" t="n">
-        <v>53.00522523531488</v>
+        <v>53.00522523531487</v>
       </c>
       <c r="C32" t="n">
         <v>85.10319547635784</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>45.45951547154266</v>
+        <v>45.45951547154267</v>
       </c>
       <c r="B34" t="n">
         <v>33.79770087125227</v>
@@ -840,7 +840,7 @@
         <v>12.68606388368217</v>
       </c>
       <c r="B37" t="n">
-        <v>7.316086549306902</v>
+        <v>7.316086549306899</v>
       </c>
       <c r="C37" t="n">
         <v>18.90901970120294</v>
@@ -851,15 +851,15 @@
         <v>65.29982778425237</v>
       </c>
       <c r="B38" t="n">
-        <v>49.51194903765084</v>
+        <v>49.51194903765085</v>
       </c>
       <c r="C38" t="n">
-        <v>78.32767863473353</v>
+        <v>78.32767863473352</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>34.91776893462796</v>
+        <v>34.91776893462797</v>
       </c>
       <c r="B39" t="n">
         <v>25.34149843333355</v>
@@ -873,7 +873,7 @@
         <v>8.956521600323128</v>
       </c>
       <c r="B40" t="n">
-        <v>3.721616420990337</v>
+        <v>3.721616420990333</v>
       </c>
       <c r="C40" t="n">
         <v>15.2545535537556</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38.03208716615901</v>
+        <v>38.032087166159</v>
       </c>
       <c r="B41" t="n">
         <v>26.63714384836902</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>56.03291826979178</v>
+        <v>56.03291826979179</v>
       </c>
       <c r="B45" t="n">
         <v>42.28228654292086</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>60.32710473977366</v>
+        <v>60.32710473977365</v>
       </c>
       <c r="B46" t="n">
         <v>44.71932219989543</v>
@@ -950,7 +950,7 @@
         <v>83.80199055183914</v>
       </c>
       <c r="B47" t="n">
-        <v>63.94289079336093</v>
+        <v>63.94289079336095</v>
       </c>
       <c r="C47" t="n">
         <v>99.58030030479685</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33.70624443484271</v>
+        <v>33.70624443484272</v>
       </c>
       <c r="B48" t="n">
-        <v>24.17172495764457</v>
+        <v>24.17172495764458</v>
       </c>
       <c r="C48" t="n">
         <v>42.6415805464445</v>
@@ -972,7 +972,7 @@
         <v>7.618372055200176</v>
       </c>
       <c r="B49" t="n">
-        <v>2.438310010301851</v>
+        <v>2.438310010301841</v>
       </c>
       <c r="C49" t="n">
         <v>13.90551294063314</v>
@@ -983,7 +983,7 @@
         <v>12.62275136101332</v>
       </c>
       <c r="B50" t="n">
-        <v>7.259320081807147</v>
+        <v>7.25932008180714</v>
       </c>
       <c r="C50" t="n">
         <v>18.82176288077626</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-4.071586458830922</v>
+        <v>-4.071586458830929</v>
       </c>
       <c r="B51" t="n">
-        <v>-7.130899435806089</v>
+        <v>-7.130899435806096</v>
       </c>
       <c r="C51" t="n">
         <v>0.9083339559565928</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.901136585647798</v>
+        <v>0.9011365856477909</v>
       </c>
       <c r="B54" t="n">
-        <v>-2.338272598050668</v>
+        <v>-2.338272598050676</v>
       </c>
       <c r="C54" t="n">
         <v>5.780955485886373</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11.41122686122807</v>
+        <v>11.41122686122806</v>
       </c>
       <c r="B55" t="n">
-        <v>6.089546606118169</v>
+        <v>6.089546606118162</v>
       </c>
       <c r="C55" t="n">
         <v>17.64723590850716</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>61.41200419422121</v>
+        <v>61.41200419422122</v>
       </c>
       <c r="B56" t="n">
         <v>45.77556274058489</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.112661085433054</v>
+        <v>2.112661085433047</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.168499122361691</v>
+        <v>-1.168499122361698</v>
       </c>
       <c r="C60" t="n">
         <v>6.95548245815548</v>
@@ -1112,18 +1112,18 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>52.17675094109504</v>
+        <v>52.17675094109505</v>
       </c>
       <c r="B62" t="n">
         <v>38.57428347960479</v>
       </c>
       <c r="C62" t="n">
-        <v>63.8505738062945</v>
+        <v>63.85057380629451</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66.44803976136878</v>
+        <v>66.44803976136879</v>
       </c>
       <c r="B63" t="n">
         <v>50.62495604584007</v>
@@ -1137,7 +1137,7 @@
         <v>2.144317346767473</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.140115888611813</v>
+        <v>-1.14011588861182</v>
       </c>
       <c r="C64" t="n">
         <v>6.999110868368817</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>44.15302218775413</v>
+        <v>44.15302218775414</v>
       </c>
       <c r="B66" t="n">
         <v>32.54277769431366</v>
@@ -1173,7 +1173,7 @@
         <v>31.42977068612444</v>
       </c>
       <c r="C67" t="n">
-        <v>53.33333399679617</v>
+        <v>53.33333399679618</v>
       </c>
     </row>
     <row r="68">
@@ -1181,7 +1181,7 @@
         <v>10.10473357743953</v>
       </c>
       <c r="B68" t="n">
-        <v>4.834623429179558</v>
+        <v>4.834623429179551</v>
       </c>
       <c r="C68" t="n">
         <v>16.34182370559804</v>
@@ -1189,21 +1189,21 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>83.70702176783585</v>
+        <v>83.70702176783587</v>
       </c>
       <c r="B69" t="n">
-        <v>63.8577410921113</v>
+        <v>63.85774109211131</v>
       </c>
       <c r="C69" t="n">
-        <v>99.44941507415686</v>
+        <v>99.44941507415685</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8.988177861657555</v>
+        <v>8.988177861657547</v>
       </c>
       <c r="B70" t="n">
-        <v>3.749999654740215</v>
+        <v>3.749999654740211</v>
       </c>
       <c r="C70" t="n">
         <v>15.29818196396894</v>
@@ -1225,7 +1225,7 @@
         <v>29.91338962881482</v>
       </c>
       <c r="B72" t="n">
-        <v>20.52048836182826</v>
+        <v>20.52048836182825</v>
       </c>
       <c r="C72" t="n">
         <v>38.89985757857049</v>
